--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -33,13 +33,6 @@
     <t>御中</t>
     <rPh sb="0" eb="2">
       <t>オンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　和納保育園　</t>
-    <rPh sb="1" eb="6">
-      <t>ワノウホイクエン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -166,6 +159,10 @@
   </si>
   <si>
     <t>塚田牛乳特約店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aa</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -587,245 +584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3790950" y="714375"/>
-          <a:ext cx="2162176" cy="1323975"/>
-          <a:chOff x="3790950" y="695325"/>
-          <a:chExt cx="2162176" cy="1323975"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="角丸四角形 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3790950" y="695325"/>
-            <a:ext cx="2162176" cy="1323975"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 6440"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3790950" y="928688"/>
-            <a:ext cx="2162176" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10563225" y="704850"/>
-          <a:ext cx="2162176" cy="1323975"/>
-          <a:chOff x="3790950" y="695325"/>
-          <a:chExt cx="2162176" cy="1323975"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="角丸四角形 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3790950" y="695325"/>
-            <a:ext cx="2162176" cy="1323975"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 6440"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="直線コネクタ 9"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3790950" y="928688"/>
-            <a:ext cx="2162176" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="dash"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,7 +895,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
@@ -1157,7 +915,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF1" s="50"/>
       <c r="AG1" s="50"/>
@@ -1174,7 +932,7 @@
     </row>
     <row r="2" spans="1:43" ht="24.75">
       <c r="A2" s="44" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -1192,7 +950,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6"/>
       <c r="O2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" s="49">
         <v>44560</v>
@@ -1203,7 +961,7 @@
       <c r="T2" s="49"/>
       <c r="X2" s="59" t="str">
         <f>A2</f>
-        <v>　和納保育園　</v>
+        <v>aa</v>
       </c>
       <c r="Y2" s="59"/>
       <c r="Z2" s="59"/>
@@ -1221,7 +979,7 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM2" s="60">
         <f>P2</f>
@@ -1247,7 +1005,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
@@ -1272,7 +1030,7 @@
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="46"/>
       <c r="AM3" s="46"/>
@@ -1284,7 +1042,7 @@
     <row r="4" spans="1:43" ht="28.5">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1298,7 +1056,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="47"/>
@@ -1308,7 +1066,7 @@
       <c r="T4" s="47"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -1322,7 +1080,7 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL4" s="47"/>
       <c r="AM4" s="47"/>
@@ -1346,7 +1104,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="48"/>
       <c r="P5" s="48"/>
@@ -1368,7 +1126,7 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL5" s="48"/>
       <c r="AM5" s="48"/>
@@ -1380,7 +1138,7 @@
     <row r="6" spans="1:43">
       <c r="A6" s="5"/>
       <c r="B6" s="52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -1397,7 +1155,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O6" s="48"/>
       <c r="P6" s="48"/>
@@ -1407,7 +1165,7 @@
       <c r="T6" s="48"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z6" s="52"/>
       <c r="AA6" s="52"/>
@@ -1424,7 +1182,7 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="48"/>
       <c r="AM6" s="48"/>
@@ -1444,13 +1202,13 @@
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" s="48"/>
       <c r="P7" s="48"/>
@@ -1468,13 +1226,13 @@
       <c r="AE7" s="58"/>
       <c r="AF7" s="58"/>
       <c r="AG7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL7" s="48"/>
       <c r="AM7" s="48"/>
@@ -1507,11 +1265,11 @@
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -1522,16 +1280,16 @@
       <c r="J9" s="41"/>
       <c r="K9" s="38"/>
       <c r="L9" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R9" s="51"/>
       <c r="S9" s="51"/>
@@ -1540,11 +1298,11 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" s="51"/>
       <c r="Z9" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA9" s="41"/>
       <c r="AB9" s="41"/>
@@ -1555,16 +1313,16 @@
       <c r="AG9" s="41"/>
       <c r="AH9" s="38"/>
       <c r="AI9" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ9" s="38"/>
       <c r="AK9" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL9" s="41"/>
       <c r="AM9" s="38"/>
       <c r="AN9" s="51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" s="51"/>
       <c r="AP9" s="51"/>
@@ -2529,7 +2287,7 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="N25" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="18"/>
@@ -2557,7 +2315,7 @@
       <c r="AI25" s="15"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL25" s="17"/>
       <c r="AM25" s="18"/>
@@ -2583,7 +2341,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="N26" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" s="17"/>
       <c r="P26" s="18"/>
@@ -2611,7 +2369,7 @@
       <c r="AI26" s="15"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL26" s="17"/>
       <c r="AM26" s="18"/>
@@ -2637,7 +2395,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="N27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="18"/>
@@ -2665,7 +2423,7 @@
       <c r="AI27" s="15"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" s="17"/>
       <c r="AM27" s="18"/>
@@ -2855,6 +2613,10 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="N3:T3"/>
@@ -2868,6 +2630,7 @@
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="E6:I7"/>
+    <mergeCell ref="N9:P9"/>
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="X15:Y15"/>
@@ -2886,6 +2649,12 @@
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="N17:P17"/>
     <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
     <mergeCell ref="AN18:AQ18"/>
     <mergeCell ref="X19:Y19"/>
     <mergeCell ref="N20:P20"/>
@@ -2896,20 +2665,9 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="Q20:T20"/>
     <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C20:K20"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="C24:K24"/>
@@ -2980,6 +2738,5 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="納品書" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1" iterateDelta="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>御中</t>
     <rPh sb="0" eb="2">
@@ -165,6 +165,13 @@
     <t>aa</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>（受領印）</t>
+    <rPh sb="1" eb="4">
+      <t>ジュリョウイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -175,7 +182,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +292,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -300,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -369,6 +383,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -378,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +484,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,35 +526,66 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +599,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -476,97 +635,23 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,7 +963,9 @@
   </sheetPr>
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
   <cols>
@@ -894,12 +981,12 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -914,14 +1001,14 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
-      <c r="AE1" s="50" t="s">
+      <c r="AE1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -931,18 +1018,18 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="24.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -952,26 +1039,26 @@
       <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="53">
         <v>44560</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="X2" s="59" t="str">
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="X2" s="30" t="str">
         <f>A2</f>
         <v>aa</v>
       </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="45" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="45"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -981,14 +1068,14 @@
       <c r="AL2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="60">
+      <c r="AM2" s="32">
         <f>P2</f>
         <v>44560</v>
       </c>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="9"/>
@@ -1004,15 +1091,15 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -1029,15 +1116,15 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
-      <c r="AK3" s="46" t="s">
+      <c r="AK3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
     </row>
     <row r="4" spans="1:43" ht="28.5">
       <c r="A4" s="5"/>
@@ -1055,15 +1142,15 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
         <v>8</v>
@@ -1079,15 +1166,15 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="47" t="s">
+      <c r="AK4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="5"/>
@@ -1103,15 +1190,15 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -1125,23 +1212,23 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="48" t="s">
+      <c r="AK5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="54">
         <f>Q27</f>
         <v>0</v>
@@ -1154,48 +1241,48 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="52" t="s">
+      <c r="Y6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="57">
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="44">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="48" t="s">
+      <c r="AK6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="5"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -1207,39 +1294,39 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
       <c r="AG7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="48" t="s">
+      <c r="AK7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
     </row>
     <row r="8" spans="1:43">
       <c r="X8" s="3"/>
@@ -1264,1014 +1351,1014 @@
       <c r="AQ8" s="3"/>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="37" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="37"/>
+      <c r="N9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="51" t="s">
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="37" t="s">
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="37" t="s">
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="37" t="s">
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="51" t="s">
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
     </row>
     <row r="10" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="19" t="str">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="17" t="str">
         <f>IF((L10*N10)=0,"",L10*N10)</f>
         <v/>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="42" t="str">
+      <c r="X10" s="16" t="str">
         <f>IF(A10=0,"",A10)</f>
         <v/>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="21" t="str">
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="19" t="str">
         <f>IF(C10=0,"",C10)</f>
         <v/>
       </c>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="24" t="str">
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22" t="str">
         <f>IF(L10=0,"",L10)</f>
         <v/>
       </c>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26" t="str">
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24" t="str">
         <f t="shared" ref="AK10:AK24" si="0">IF(N10=0,"",N10)</f>
         <v/>
       </c>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="19" t="str">
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="17" t="str">
         <f t="shared" ref="AN10:AN24" si="1">IF(Q10=0,"",Q10)</f>
         <v/>
       </c>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
     </row>
     <row r="11" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="19" t="str">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="17" t="str">
         <f t="shared" ref="Q11:Q24" si="2">IF((L11*N11)=0,"",L11*N11)</f>
         <v/>
       </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="42" t="str">
+      <c r="X11" s="16" t="str">
         <f>IF(A11=0,"",A11)</f>
         <v/>
       </c>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="21" t="str">
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="19" t="str">
         <f t="shared" ref="Z11:Z24" si="3">IF(C11=0,"",C11)</f>
         <v/>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="24" t="str">
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="22" t="str">
         <f t="shared" ref="AI11:AI24" si="4">IF(L11=0,"",L11)</f>
         <v/>
       </c>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="26" t="str">
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="19" t="str">
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
     </row>
     <row r="12" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="19" t="str">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="42" t="str">
+      <c r="X12" s="16" t="str">
         <f t="shared" ref="X12:X24" si="5">IF(A12=0,"",A12)</f>
         <v/>
       </c>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="21" t="str">
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="24" t="str">
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="26" t="str">
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="19" t="str">
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
     </row>
     <row r="13" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="19" t="str">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="X13" s="42" t="str">
+      <c r="X13" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="21" t="str">
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="24" t="str">
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="26" t="str">
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="19" t="str">
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
     </row>
     <row r="14" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="19" t="str">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="21" t="str">
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="24" t="str">
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="26" t="str">
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="19" t="str">
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
     </row>
     <row r="15" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="19" t="str">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="42" t="str">
+      <c r="X15" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="21" t="str">
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="24" t="str">
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="26" t="str">
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="19" t="str">
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
     </row>
     <row r="16" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="19" t="str">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="42" t="str">
+      <c r="X16" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="21" t="str">
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="24" t="str">
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="26" t="str">
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="19" t="str">
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
     </row>
     <row r="17" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="19" t="str">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="42" t="str">
+      <c r="X17" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="21" t="str">
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="24" t="str">
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="26" t="str">
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="19" t="str">
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
     </row>
     <row r="18" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="19" t="str">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="42" t="str">
+      <c r="X18" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="21" t="str">
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="24" t="str">
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="26" t="str">
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="19" t="str">
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
     </row>
     <row r="19" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="19" t="str">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="42" t="str">
+      <c r="X19" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="21" t="str">
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="24" t="str">
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="26" t="str">
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="19" t="str">
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
     </row>
     <row r="20" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="19" t="str">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="42" t="str">
+      <c r="X20" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="21" t="str">
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="24" t="str">
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="26" t="str">
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="19" t="str">
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
     </row>
     <row r="21" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="19" t="str">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="42" t="str">
+      <c r="X21" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="21" t="str">
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="24" t="str">
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="26" t="str">
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="19" t="str">
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
     </row>
     <row r="22" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="19" t="str">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
-      <c r="X22" s="42" t="str">
+      <c r="X22" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="21" t="str">
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="24" t="str">
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="26" t="str">
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="19" t="str">
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
     </row>
     <row r="23" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="19" t="str">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
-      <c r="X23" s="42" t="str">
+      <c r="X23" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="21" t="str">
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="24" t="str">
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="26" t="str">
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="19" t="str">
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
     </row>
     <row r="24" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="19" t="str">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
-      <c r="X24" s="42" t="str">
+      <c r="X24" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="21" t="str">
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="24" t="str">
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="26" t="str">
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="19" t="str">
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
     </row>
     <row r="25" spans="1:43" ht="23.25" customHeight="1">
       <c r="A25" s="15"/>
@@ -2286,18 +2373,18 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="32">
+      <c r="O25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="59">
         <f>SUM(Q10:T24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
@@ -2314,18 +2401,18 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="16" t="s">
+      <c r="AK25" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="19">
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="17">
         <f>Q25</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
     </row>
     <row r="26" spans="1:43" ht="23.25" customHeight="1">
       <c r="A26" s="15"/>
@@ -2340,46 +2427,48 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="32">
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="59">
         <f>FLOOR(Q25*0.08,1)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="X26" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="62"/>
       <c r="AJ26" s="3"/>
-      <c r="AK26" s="16" t="s">
+      <c r="AK26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="19">
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="17">
         <f>Q26</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
     </row>
     <row r="27" spans="1:43" ht="23.25" customHeight="1">
       <c r="A27" s="15"/>
@@ -2394,46 +2483,46 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="32">
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="59">
         <f>Q25+Q26</f>
         <v>0</v>
       </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="65"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="16" t="s">
+      <c r="AK27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="19">
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="17">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
     </row>
     <row r="28" spans="1:43" ht="49.5" customHeight="1">
       <c r="X28" s="3"/>
@@ -2540,16 +2629,166 @@
     <row r="47" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="194">
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:I7"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB6:AF7"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="X23:Y23"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AM2:AQ2"/>
@@ -2574,166 +2813,16 @@
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="AN12:AQ12"/>
     <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="Y6:AA7"/>
-    <mergeCell ref="AB6:AF7"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:I7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -166,9 +166,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>（受領印）</t>
-    <rPh sb="1" eb="4">
-      <t>ジュリョウイン</t>
+    <t>受　領　印</t>
+    <rPh sb="0" eb="1">
+      <t>ウケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -182,7 +188,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,7 +299,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -314,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -436,6 +450,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -445,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,129 +516,133 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -619,39 +655,47 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,9 +1007,7 @@
   </sheetPr>
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
   <cols>
@@ -981,12 +1023,12 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1001,14 +1043,14 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -1018,18 +1060,18 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="24.75">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="31" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1039,26 +1081,26 @@
       <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="49">
         <v>44560</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="X2" s="30" t="str">
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="X2" s="59" t="str">
         <f>A2</f>
         <v>aa</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="31" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="31"/>
+      <c r="AE2" s="45"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -1068,14 +1110,14 @@
       <c r="AL2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="32">
+      <c r="AM2" s="60">
         <f>P2</f>
         <v>44560</v>
       </c>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="9"/>
@@ -1091,15 +1133,15 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -1116,15 +1158,15 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
-      <c r="AK3" s="39" t="s">
+      <c r="AK3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
     </row>
     <row r="4" spans="1:43" ht="28.5">
       <c r="A4" s="5"/>
@@ -1142,15 +1184,15 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
         <v>8</v>
@@ -1166,15 +1208,15 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="40" t="s">
+      <c r="AK4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="5"/>
@@ -1190,15 +1232,15 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -1212,23 +1254,23 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="41" t="s">
+      <c r="AK5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="54">
         <f>Q27</f>
         <v>0</v>
@@ -1241,48 +1283,48 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="42" t="s">
+      <c r="Y6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="44">
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="57">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="41" t="s">
+      <c r="AK6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="5"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
@@ -1294,39 +1336,39 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
       <c r="AG7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AK7" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
     </row>
     <row r="8" spans="1:43">
       <c r="X8" s="3"/>
@@ -1351,1014 +1393,1014 @@
       <c r="AQ8" s="3"/>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="35" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="35" t="s">
+      <c r="M9" s="38"/>
+      <c r="N9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="34" t="s">
+      <c r="O9" s="41"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="34" t="s">
+      <c r="X9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35" t="s">
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="35" t="s">
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="35" t="s">
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="34" t="s">
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
     </row>
     <row r="10" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="17" t="str">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="19" t="str">
         <f>IF((L10*N10)=0,"",L10*N10)</f>
         <v/>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="16" t="str">
+      <c r="X10" s="42" t="str">
         <f>IF(A10=0,"",A10)</f>
         <v/>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="19" t="str">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="21" t="str">
         <f>IF(C10=0,"",C10)</f>
         <v/>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="22" t="str">
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="24" t="str">
         <f>IF(L10=0,"",L10)</f>
         <v/>
       </c>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="24" t="str">
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="26" t="str">
         <f t="shared" ref="AK10:AK24" si="0">IF(N10=0,"",N10)</f>
         <v/>
       </c>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="17" t="str">
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="28"/>
+      <c r="AN10" s="19" t="str">
         <f t="shared" ref="AN10:AN24" si="1">IF(Q10=0,"",Q10)</f>
         <v/>
       </c>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
     </row>
     <row r="11" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="17" t="str">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="19" t="str">
         <f t="shared" ref="Q11:Q24" si="2">IF((L11*N11)=0,"",L11*N11)</f>
         <v/>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="16" t="str">
+      <c r="X11" s="42" t="str">
         <f>IF(A11=0,"",A11)</f>
         <v/>
       </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="19" t="str">
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="21" t="str">
         <f t="shared" ref="Z11:Z24" si="3">IF(C11=0,"",C11)</f>
         <v/>
       </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="22" t="str">
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="24" t="str">
         <f t="shared" ref="AI11:AI24" si="4">IF(L11=0,"",L11)</f>
         <v/>
       </c>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="24" t="str">
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="17" t="str">
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
     </row>
     <row r="12" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="17" t="str">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="16" t="str">
+      <c r="X12" s="42" t="str">
         <f t="shared" ref="X12:X24" si="5">IF(A12=0,"",A12)</f>
         <v/>
       </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="19" t="str">
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="22" t="str">
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="24" t="str">
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="17" t="str">
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
     </row>
     <row r="13" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="17" t="str">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="X13" s="16" t="str">
+      <c r="X13" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="19" t="str">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="22" t="str">
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="24" t="str">
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="17" t="str">
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
     </row>
     <row r="14" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="17" t="str">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="16" t="str">
+      <c r="X14" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="19" t="str">
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="22" t="str">
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="24" t="str">
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="17" t="str">
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
     </row>
     <row r="15" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="17" t="str">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="16" t="str">
+      <c r="X15" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="19" t="str">
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="22" t="str">
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="24" t="str">
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="17" t="str">
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="18"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
     </row>
     <row r="16" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="17" t="str">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="16" t="str">
+      <c r="X16" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="19" t="str">
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="20"/>
-      <c r="AG16" s="20"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="22" t="str">
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="24" t="str">
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="17" t="str">
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
     </row>
     <row r="17" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="17" t="str">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="16" t="str">
+      <c r="X17" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="19" t="str">
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="22" t="str">
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="24" t="str">
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="17" t="str">
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
     </row>
     <row r="18" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="17" t="str">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="16" t="str">
+      <c r="X18" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="19" t="str">
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="22" t="str">
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="24" t="str">
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="17" t="str">
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
     </row>
     <row r="19" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="17" t="str">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="16" t="str">
+      <c r="X19" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="19" t="str">
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="22" t="str">
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ19" s="23"/>
-      <c r="AK19" s="24" t="str">
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="17" t="str">
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
     </row>
     <row r="20" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="17" t="str">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="16" t="str">
+      <c r="X20" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="19" t="str">
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="22" t="str">
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="24" t="str">
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="17" t="str">
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
     </row>
     <row r="21" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="17" t="str">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="16" t="str">
+      <c r="X21" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="19" t="str">
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="22" t="str">
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="24" t="str">
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="17" t="str">
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
     </row>
     <row r="22" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="17" t="str">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
-      <c r="X22" s="16" t="str">
+      <c r="X22" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="19" t="str">
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="22" t="str">
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="24" t="str">
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="17" t="str">
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
     </row>
     <row r="23" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="17" t="str">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
-      <c r="X23" s="16" t="str">
+      <c r="X23" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="19" t="str">
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="22" t="str">
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="24" t="str">
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="17" t="str">
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="18"/>
-      <c r="AP23" s="18"/>
-      <c r="AQ23" s="18"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
     </row>
     <row r="24" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="17" t="str">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
-      <c r="X24" s="16" t="str">
+      <c r="X24" s="42" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="19" t="str">
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="22" t="str">
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ24" s="23"/>
-      <c r="AK24" s="24" t="str">
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="17" t="str">
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="18"/>
-      <c r="AP24" s="18"/>
-      <c r="AQ24" s="18"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
     </row>
     <row r="25" spans="1:43" ht="23.25" customHeight="1">
       <c r="A25" s="15"/>
@@ -2373,25 +2415,27 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="59">
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="32">
         <f>SUM(Q10:T24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
+      <c r="X25" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="64"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -2401,18 +2445,18 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="27" t="s">
+      <c r="AK25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="17">
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="19">
         <f>Q25</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
     </row>
     <row r="26" spans="1:43" ht="23.25" customHeight="1">
       <c r="A26" s="15"/>
@@ -2427,27 +2471,25 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="59">
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="32">
         <f>FLOOR(Q25*0.08,1)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="66"/>
       <c r="AB26" s="61"/>
       <c r="AC26" s="61"/>
       <c r="AD26" s="61"/>
@@ -2455,20 +2497,20 @@
       <c r="AF26" s="61"/>
       <c r="AG26" s="61"/>
       <c r="AH26" s="61"/>
-      <c r="AI26" s="62"/>
+      <c r="AI26" s="61"/>
       <c r="AJ26" s="3"/>
-      <c r="AK26" s="27" t="s">
+      <c r="AK26" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="17">
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="19">
         <f>Q26</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
     </row>
     <row r="27" spans="1:43" ht="23.25" customHeight="1">
       <c r="A27" s="15"/>
@@ -2483,48 +2525,48 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="59">
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="32">
         <f>Q25+Q26</f>
         <v>0</v>
       </c>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="65"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="27" t="s">
+      <c r="AK27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="17">
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="19">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="18"/>
-      <c r="AP27" s="18"/>
-      <c r="AQ27" s="18"/>
-    </row>
-    <row r="28" spans="1:43" ht="49.5" customHeight="1">
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+    </row>
+    <row r="28" spans="1:43" ht="24.75" customHeight="1">
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -2628,49 +2670,136 @@
     <row r="46" ht="16.5" customHeight="1"/>
     <row r="47" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="194">
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
+  <mergeCells count="195">
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="X25:AA27"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB6:AF7"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:I7"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="C24:K24"/>
@@ -2695,137 +2824,51 @@
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C13:K13"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:I7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="Y6:AA7"/>
-    <mergeCell ref="AB6:AF7"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AN20:AQ20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>御中</t>
     <rPh sb="0" eb="2">
@@ -148,16 +148,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品受領書</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュリョウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>塚田牛乳特約店</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -175,6 +165,23 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品書（控）</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品日</t>
+    <rPh sb="0" eb="3">
+      <t>ノウヒンビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -516,6 +523,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,35 +568,93 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,6 +668,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -574,128 +703,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,12 +1030,12 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1043,14 +1050,14 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
-      <c r="AE1" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
+      <c r="AE1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -1060,18 +1067,18 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="24.75">
-      <c r="A2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1081,26 +1088,26 @@
       <c r="O2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="63">
         <v>44560</v>
       </c>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="X2" s="59" t="str">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="X2" s="40" t="str">
         <f>A2</f>
         <v>aa</v>
       </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="45" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="45"/>
+      <c r="AE2" s="41"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
@@ -1108,16 +1115,16 @@
       <c r="AJ2" s="5"/>
       <c r="AK2" s="6"/>
       <c r="AL2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="60">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="42">
         <f>P2</f>
         <v>44560</v>
       </c>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="9"/>
@@ -1133,15 +1140,15 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="N3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -1158,15 +1165,15 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
-      <c r="AK3" s="46" t="s">
+      <c r="AK3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
     </row>
     <row r="4" spans="1:43" ht="28.5">
       <c r="A4" s="5"/>
@@ -1184,15 +1191,15 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
         <v>8</v>
@@ -1208,15 +1215,15 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="47" t="s">
+      <c r="AK4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="5"/>
@@ -1232,15 +1239,15 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
@@ -1254,15 +1261,15 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="48" t="s">
+      <c r="AK5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="5"/>
@@ -1271,104 +1278,104 @@
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
-      <c r="E6" s="54">
+      <c r="E6" s="64">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="12"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="52" t="s">
         <v>7</v>
       </c>
       <c r="Z6" s="52"/>
       <c r="AA6" s="52"/>
-      <c r="AB6" s="57">
+      <c r="AB6" s="54">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
-      <c r="AK6" s="48" t="s">
+      <c r="AK6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="5"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
       <c r="AA7" s="53"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="58"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
       <c r="AG7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="48" t="s">
+      <c r="AK7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
     </row>
     <row r="8" spans="1:43">
       <c r="X8" s="3"/>
@@ -1393,1014 +1400,1014 @@
       <c r="AQ8" s="3"/>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="37" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="37" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="51" t="s">
+      <c r="O9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="37" t="s">
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="37" t="s">
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="37" t="s">
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="51" t="s">
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="44"/>
+      <c r="AQ9" s="44"/>
     </row>
     <row r="10" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="19" t="str">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="18" t="str">
         <f>IF((L10*N10)=0,"",L10*N10)</f>
         <v/>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="42" t="str">
+      <c r="X10" s="17" t="str">
         <f>IF(A10=0,"",A10)</f>
         <v/>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="21" t="str">
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="20" t="str">
         <f>IF(C10=0,"",C10)</f>
         <v/>
       </c>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="24" t="str">
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="23" t="str">
         <f>IF(L10=0,"",L10)</f>
         <v/>
       </c>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26" t="str">
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="25" t="str">
         <f t="shared" ref="AK10:AK24" si="0">IF(N10=0,"",N10)</f>
         <v/>
       </c>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="19" t="str">
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="18" t="str">
         <f t="shared" ref="AN10:AN24" si="1">IF(Q10=0,"",Q10)</f>
         <v/>
       </c>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
     </row>
     <row r="11" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="19" t="str">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="18" t="str">
         <f t="shared" ref="Q11:Q24" si="2">IF((L11*N11)=0,"",L11*N11)</f>
         <v/>
       </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="42" t="str">
+      <c r="X11" s="17" t="str">
         <f>IF(A11=0,"",A11)</f>
         <v/>
       </c>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="21" t="str">
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="20" t="str">
         <f t="shared" ref="Z11:Z24" si="3">IF(C11=0,"",C11)</f>
         <v/>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="24" t="str">
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="23" t="str">
         <f t="shared" ref="AI11:AI24" si="4">IF(L11=0,"",L11)</f>
         <v/>
       </c>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="26" t="str">
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="19" t="str">
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
     </row>
     <row r="12" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="19" t="str">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="42" t="str">
+      <c r="X12" s="17" t="str">
         <f t="shared" ref="X12:X24" si="5">IF(A12=0,"",A12)</f>
         <v/>
       </c>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="21" t="str">
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="24" t="str">
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="26" t="str">
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="19" t="str">
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
     </row>
     <row r="13" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="19" t="str">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="X13" s="42" t="str">
+      <c r="X13" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="21" t="str">
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="24" t="str">
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="26" t="str">
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="19" t="str">
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
     </row>
     <row r="14" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="19" t="str">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="42" t="str">
+      <c r="X14" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="21" t="str">
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="24" t="str">
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="26" t="str">
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="19" t="str">
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="20"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
     </row>
     <row r="15" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="19" t="str">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="42" t="str">
+      <c r="X15" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="21" t="str">
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="24" t="str">
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="26" t="str">
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="19" t="str">
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
     </row>
     <row r="16" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="19" t="str">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="42" t="str">
+      <c r="X16" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="21" t="str">
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="24" t="str">
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="26" t="str">
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="19" t="str">
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="20"/>
-      <c r="AQ16" s="20"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
     </row>
     <row r="17" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="19" t="str">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="42" t="str">
+      <c r="X17" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="21" t="str">
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="24" t="str">
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="26" t="str">
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="19" t="str">
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="20"/>
-      <c r="AQ17" s="20"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
     </row>
     <row r="18" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="19" t="str">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="42" t="str">
+      <c r="X18" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="21" t="str">
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="24" t="str">
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="26" t="str">
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="19" t="str">
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
     </row>
     <row r="19" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="19" t="str">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="42" t="str">
+      <c r="X19" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="21" t="str">
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="24" t="str">
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="26" t="str">
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="28"/>
-      <c r="AN19" s="19" t="str">
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
     </row>
     <row r="20" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="19" t="str">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="42" t="str">
+      <c r="X20" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="21" t="str">
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="24" t="str">
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="26" t="str">
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="19" t="str">
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
     </row>
     <row r="21" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="19" t="str">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="42" t="str">
+      <c r="X21" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="21" t="str">
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="24" t="str">
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="26" t="str">
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="19" t="str">
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
     </row>
     <row r="22" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="19" t="str">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
-      <c r="X22" s="42" t="str">
+      <c r="X22" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="21" t="str">
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="24" t="str">
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="26" t="str">
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="19" t="str">
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
     </row>
     <row r="23" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="19" t="str">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="13"/>
-      <c r="X23" s="42" t="str">
+      <c r="X23" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="21" t="str">
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="24" t="str">
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="26" t="str">
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="19" t="str">
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
     </row>
     <row r="24" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="19" t="str">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
-      <c r="X24" s="42" t="str">
+      <c r="X24" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="21" t="str">
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="24" t="str">
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="23" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="26" t="str">
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="19" t="str">
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
     </row>
     <row r="25" spans="1:43" ht="23.25" customHeight="1">
       <c r="A25" s="15"/>
@@ -2415,27 +2422,27 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="32">
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="69">
         <f>SUM(Q10:T24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
-      <c r="X25" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="64"/>
+      <c r="X25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
@@ -2445,18 +2452,18 @@
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="16" t="s">
+      <c r="AK25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="19">
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="18">
         <f>Q25</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
     </row>
     <row r="26" spans="1:43" ht="23.25" customHeight="1">
       <c r="A26" s="15"/>
@@ -2471,46 +2478,46 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="32">
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="69">
         <f>FLOOR(Q25*0.08,1)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
       <c r="AJ26" s="3"/>
-      <c r="AK26" s="16" t="s">
+      <c r="AK26" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="19">
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="18">
         <f>Q26</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
     </row>
     <row r="27" spans="1:43" ht="23.25" customHeight="1">
       <c r="A27" s="15"/>
@@ -2525,46 +2532,46 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="N27" s="16" t="s">
+      <c r="N27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="32">
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="69">
         <f>Q25+Q26</f>
         <v>0</v>
       </c>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="16" t="s">
+      <c r="AK27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="19">
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="18">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
     </row>
     <row r="28" spans="1:43" ht="24.75" customHeight="1">
       <c r="X28" s="3"/>
@@ -2671,17 +2678,162 @@
     <row r="47" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="X25:AA27"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:I7"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB6:AF7"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="X23:Y23"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AM2:AQ2"/>
@@ -2706,166 +2858,21 @@
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="AN12:AQ12"/>
     <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="Y6:AA7"/>
-    <mergeCell ref="AB6:AF7"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:I7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="X25:AA27"/>
     <mergeCell ref="AK26:AM26"/>
     <mergeCell ref="AN26:AQ26"/>
     <mergeCell ref="AK27:AM27"/>
     <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AN20:AQ20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7E61DF-0B18-4153-82FF-448CE2DF944A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D13D2-CCE4-4594-9AA7-04A57686500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="23535" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="4" r:id="rId1"/>
@@ -30,14 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
-  <si>
-    <t>御中</t>
-    <rPh sb="0" eb="2">
-      <t>オンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>納品書</t>
     <phoneticPr fontId="2"/>
@@ -154,10 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>受　領　印</t>
     <rPh sb="0" eb="1">
       <t>ウケ</t>
@@ -187,6 +176,10 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +190,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,14 +239,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -480,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,90 +485,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -591,64 +573,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -656,40 +638,40 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,12 +999,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="I1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1037,14 +1019,14 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
+      <c r="AE1" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
@@ -1054,62 +1036,58 @@
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" ht="24.75">
-      <c r="A2" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="A2" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="58">
+        <v>8</v>
+      </c>
+      <c r="P2" s="57">
         <v>44560</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
       <c r="X2" s="66" t="str">
         <f>A2</f>
-        <v>aa</v>
+        <v>aaaaa</v>
       </c>
       <c r="Y2" s="66"/>
       <c r="Z2" s="66"/>
       <c r="AA2" s="66"/>
       <c r="AB2" s="66"/>
       <c r="AC2" s="66"/>
-      <c r="AD2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM2" s="38">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="37">
         <f>P2</f>
         <v>44560</v>
       </c>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="7"/>
@@ -1125,15 +1103,15 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="N3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
@@ -1150,32 +1128,32 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
+      <c r="AK3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="44"/>
     </row>
     <row r="4" spans="1:43" ht="28.5">
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+        <v>7</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
@@ -1188,26 +1166,26 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="46" t="s">
+      <c r="AK4" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="N5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-    </row>
-    <row r="5" spans="1:43">
-      <c r="N5" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1221,113 +1199,113 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
+      <c r="AK5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="B6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="59">
+      <c r="B6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="58">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="11"/>
-      <c r="N6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
+      <c r="N6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="50">
+      <c r="Y6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="49">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="47" t="s">
+      <c r="AK6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
       <c r="AG7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
+      <c r="AK7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
     </row>
     <row r="8" spans="1:43">
       <c r="X8" s="2"/>
@@ -1352,87 +1330,87 @@
       <c r="AQ8" s="2"/>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="41" t="s">
+      <c r="M9" s="42"/>
+      <c r="N9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="40" t="s">
+      <c r="X9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="41" t="s">
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="41" t="s">
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
     </row>
     <row r="10" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="57"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
       <c r="Q10" s="15" t="str">
         <f>IF((L10*N10)=0,"",L10*N10)</f>
         <v/>
@@ -1480,22 +1458,22 @@
       <c r="AQ10" s="16"/>
     </row>
     <row r="11" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="57"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="15" t="str">
         <f t="shared" ref="Q11:Q24" si="2">IF((L11*N11)=0,"",L11*N11)</f>
         <v/>
@@ -1543,22 +1521,22 @@
       <c r="AQ11" s="16"/>
     </row>
     <row r="12" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="57"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
       <c r="Q12" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1606,22 +1584,22 @@
       <c r="AQ12" s="16"/>
     </row>
     <row r="13" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="57"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1669,22 +1647,22 @@
       <c r="AQ13" s="16"/>
     </row>
     <row r="14" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="57"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="56"/>
       <c r="Q14" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1732,22 +1710,22 @@
       <c r="AQ14" s="16"/>
     </row>
     <row r="15" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
       <c r="Q15" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1795,22 +1773,22 @@
       <c r="AQ15" s="16"/>
     </row>
     <row r="16" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="57"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
       <c r="Q16" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1858,22 +1836,22 @@
       <c r="AQ16" s="16"/>
     </row>
     <row r="17" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="56"/>
       <c r="Q17" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1921,22 +1899,22 @@
       <c r="AQ17" s="16"/>
     </row>
     <row r="18" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="57"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1984,22 +1962,22 @@
       <c r="AQ18" s="16"/>
     </row>
     <row r="19" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2047,22 +2025,22 @@
       <c r="AQ19" s="16"/>
     </row>
     <row r="20" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="57"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2110,22 +2088,22 @@
       <c r="AQ20" s="16"/>
     </row>
     <row r="21" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="57"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="56"/>
       <c r="Q21" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2173,22 +2151,22 @@
       <c r="AQ21" s="16"/>
     </row>
     <row r="22" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="57"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="56"/>
       <c r="Q22" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2236,22 +2214,22 @@
       <c r="AQ22" s="16"/>
     </row>
     <row r="23" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="57"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="56"/>
       <c r="Q23" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2299,22 +2277,22 @@
       <c r="AQ23" s="16"/>
     </row>
     <row r="24" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
       <c r="Q24" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2375,22 +2353,22 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="N25" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="64">
+      <c r="Q25" s="63">
         <f>SUM(Q10:T24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y25" s="29"/>
       <c r="Z25" s="29"/>
@@ -2405,7 +2383,7 @@
       <c r="AI25" s="13"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL25" s="26"/>
       <c r="AM25" s="27"/>
@@ -2431,17 +2409,17 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="N26" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O26" s="26"/>
       <c r="P26" s="27"/>
-      <c r="Q26" s="64">
+      <c r="Q26" s="63">
         <f>FLOOR(Q25*0.08,1)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
@@ -2459,7 +2437,7 @@
       <c r="AI26" s="13"/>
       <c r="AJ26" s="2"/>
       <c r="AK26" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL26" s="26"/>
       <c r="AM26" s="27"/>
@@ -2485,17 +2463,17 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="N27" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" s="26"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="64">
+      <c r="Q27" s="63">
         <f>Q25+Q26</f>
         <v>0</v>
       </c>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
@@ -2513,7 +2491,7 @@
       <c r="AI27" s="13"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" s="26"/>
       <c r="AM27" s="27"/>
@@ -2629,8 +2607,7 @@
     <row r="46" ht="16.5" customHeight="1"/>
     <row r="47" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="AN18:AQ18"/>
+  <mergeCells count="193">
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="N26:P26"/>
@@ -2676,13 +2653,6 @@
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C13:K13"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="N22:P22"/>
@@ -2695,24 +2665,20 @@
     <mergeCell ref="Z20:AH20"/>
     <mergeCell ref="AI20:AJ20"/>
     <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="N14:P14"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
     <mergeCell ref="N19:P19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="Q16:T16"/>
@@ -2724,8 +2690,6 @@
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="C19:K19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="N3:T3"/>
     <mergeCell ref="N4:T4"/>
     <mergeCell ref="N5:T5"/>
@@ -2738,6 +2702,7 @@
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="E6:I7"/>
     <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="Q10:T10"/>
     <mergeCell ref="A11:B11"/>
@@ -2786,10 +2751,6 @@
     <mergeCell ref="X22:Y22"/>
     <mergeCell ref="AN22:AQ22"/>
     <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AE1:AJ1"/>
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="AN13:AQ13"/>
     <mergeCell ref="AN14:AQ14"/>
@@ -2810,6 +2771,28 @@
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="AN12:AQ12"/>
     <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="X25:AA27"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X2:AG2"/>
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="AN24:AQ24"/>
     <mergeCell ref="Z23:AH23"/>
@@ -2818,13 +2801,6 @@
     <mergeCell ref="Z24:AH24"/>
     <mergeCell ref="AI24:AJ24"/>
     <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="X25:AA27"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D13D2-CCE4-4594-9AA7-04A57686500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDE587-0183-47A6-AC47-D723D9C75E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,86 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,89 +585,14 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
@@ -597,47 +601,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -650,25 +630,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -983,7 +983,9 @@
   </sheetPr>
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AH2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
   <cols>
@@ -999,12 +1001,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1019,14 +1021,14 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
@@ -1036,30 +1038,30 @@
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" ht="24.75">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="45">
         <v>44560</v>
       </c>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
       <c r="X2" s="66" t="str">
         <f>A2</f>
         <v>aaaaa</v>
@@ -1073,21 +1075,21 @@
       <c r="AE2" s="66"/>
       <c r="AF2" s="66"/>
       <c r="AG2" s="66"/>
-      <c r="AH2" s="3"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="37">
+      <c r="AM2" s="65">
         <f>P2</f>
         <v>44560</v>
       </c>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="7"/>
@@ -1103,15 +1105,15 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
@@ -1128,29 +1130,29 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="44" t="s">
+      <c r="AK3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
     </row>
     <row r="4" spans="1:43" ht="28.5">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2" t="s">
         <v>7</v>
@@ -1166,26 +1168,26 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="45" t="s">
+      <c r="AK4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="N5" s="46" t="s">
+      <c r="N5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1199,113 +1201,113 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="46" t="s">
+      <c r="AK5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="58">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="50">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="11"/>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="47" t="s">
+      <c r="Y6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="49">
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="54">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="46" t="s">
+      <c r="AK6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="N7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
       <c r="AG7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="46" t="s">
+      <c r="AK7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
     </row>
     <row r="8" spans="1:43">
       <c r="X8" s="2"/>
@@ -1330,1014 +1332,1014 @@
       <c r="AQ8" s="2"/>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="40" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="40" t="s">
+      <c r="M9" s="31"/>
+      <c r="N9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="39" t="s">
+      <c r="O9" s="34"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="39" t="s">
+      <c r="X9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40" t="s">
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="40" t="s">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="40" t="s">
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="39" t="s">
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
     </row>
     <row r="10" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="15" t="str">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="38" t="str">
         <f>IF((L10*N10)=0,"",L10*N10)</f>
         <v/>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="14" t="str">
+      <c r="X10" s="41" t="str">
         <f>IF(A10=0,"",A10)</f>
         <v/>
       </c>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="17" t="str">
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="22" t="str">
         <f>IF(C10=0,"",C10)</f>
         <v/>
       </c>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="20" t="str">
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="25" t="str">
         <f>IF(L10=0,"",L10)</f>
         <v/>
       </c>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="22" t="str">
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="35" t="str">
         <f t="shared" ref="AK10:AK24" si="0">IF(N10=0,"",N10)</f>
         <v/>
       </c>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="15" t="str">
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="38" t="str">
         <f t="shared" ref="AN10:AN24" si="1">IF(Q10=0,"",Q10)</f>
         <v/>
       </c>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
     </row>
     <row r="11" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="15" t="str">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="38" t="str">
         <f t="shared" ref="Q11:Q24" si="2">IF((L11*N11)=0,"",L11*N11)</f>
         <v/>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="14" t="str">
+      <c r="X11" s="41" t="str">
         <f>IF(A11=0,"",A11)</f>
         <v/>
       </c>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="17" t="str">
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="22" t="str">
         <f t="shared" ref="Z11:Z24" si="3">IF(C11=0,"",C11)</f>
         <v/>
       </c>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="20" t="str">
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="25" t="str">
         <f t="shared" ref="AI11:AI24" si="4">IF(L11=0,"",L11)</f>
         <v/>
       </c>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="22" t="str">
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="15" t="str">
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="16"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
     </row>
     <row r="12" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="15" t="str">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="14" t="str">
+      <c r="X12" s="41" t="str">
         <f t="shared" ref="X12:X24" si="5">IF(A12=0,"",A12)</f>
         <v/>
       </c>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="17" t="str">
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="20" t="str">
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="22" t="str">
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="15" t="str">
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="16"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
     </row>
     <row r="13" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="15" t="str">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="14" t="str">
+      <c r="X13" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="17" t="str">
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="20" t="str">
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="22" t="str">
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="15" t="str">
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="16"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
     </row>
     <row r="14" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="15" t="str">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="14" t="str">
+      <c r="X14" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="17" t="str">
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="20" t="str">
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="22" t="str">
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="15" t="str">
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
     </row>
     <row r="15" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="15" t="str">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="14" t="str">
+      <c r="X15" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="17" t="str">
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="20" t="str">
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="22" t="str">
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="15" t="str">
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="16"/>
-      <c r="AP15" s="16"/>
-      <c r="AQ15" s="16"/>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
     </row>
     <row r="16" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="15" t="str">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="14" t="str">
+      <c r="X16" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="17" t="str">
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="20" t="str">
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="22" t="str">
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="15" t="str">
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
     </row>
     <row r="17" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="15" t="str">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="14" t="str">
+      <c r="X17" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="17" t="str">
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="20" t="str">
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="22" t="str">
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="15" t="str">
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="16"/>
-      <c r="AP17" s="16"/>
-      <c r="AQ17" s="16"/>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
     </row>
     <row r="18" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="15" t="str">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
-      <c r="X18" s="14" t="str">
+      <c r="X18" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="17" t="str">
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="20" t="str">
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="22" t="str">
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="15" t="str">
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="16"/>
-      <c r="AP18" s="16"/>
-      <c r="AQ18" s="16"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
     </row>
     <row r="19" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="15" t="str">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-      <c r="X19" s="14" t="str">
+      <c r="X19" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="17" t="str">
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="20" t="str">
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="22" t="str">
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="15" t="str">
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
-      <c r="AQ19" s="16"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
     </row>
     <row r="20" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="15" t="str">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="14" t="str">
+      <c r="X20" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="17" t="str">
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="20" t="str">
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="22" t="str">
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="15" t="str">
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
     </row>
     <row r="21" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="15" t="str">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="14" t="str">
+      <c r="X21" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="17" t="str">
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="20" t="str">
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="22" t="str">
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="15" t="str">
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="16"/>
-      <c r="AP21" s="16"/>
-      <c r="AQ21" s="16"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
     </row>
     <row r="22" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="15" t="str">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="14" t="str">
+      <c r="X22" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="17" t="str">
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="20" t="str">
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="22" t="str">
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="15" t="str">
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO22" s="16"/>
-      <c r="AP22" s="16"/>
-      <c r="AQ22" s="16"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
     </row>
     <row r="23" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="15" t="str">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="14" t="str">
+      <c r="X23" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="17" t="str">
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="20" t="str">
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="22" t="str">
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="15" t="str">
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="16"/>
-      <c r="AP23" s="16"/>
-      <c r="AQ23" s="16"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
     </row>
     <row r="24" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="15" t="str">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
-      <c r="X24" s="14" t="str">
+      <c r="X24" s="41" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="17" t="str">
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="20" t="str">
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="25" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="22" t="str">
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL24" s="23"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="15" t="str">
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
     </row>
     <row r="25" spans="1:43" ht="23.25" customHeight="1">
       <c r="A25" s="13"/>
@@ -2352,27 +2354,27 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="63">
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20">
         <f>SUM(Q10:T24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
-      <c r="X25" s="28" t="s">
+      <c r="X25" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="30"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
@@ -2382,18 +2384,18 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="25" t="s">
+      <c r="AK25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="15">
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="38">
         <f>Q25</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
+      <c r="AO25" s="39"/>
+      <c r="AP25" s="39"/>
+      <c r="AQ25" s="39"/>
     </row>
     <row r="26" spans="1:43" ht="23.25" customHeight="1">
       <c r="A26" s="13"/>
@@ -2408,25 +2410,25 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="63">
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="20">
         <f>FLOOR(Q25*0.08,1)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="33"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
@@ -2436,18 +2438,18 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="25" t="s">
+      <c r="AK26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="27"/>
-      <c r="AN26" s="15">
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="38">
         <f>Q26</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
+      <c r="AO26" s="39"/>
+      <c r="AP26" s="39"/>
+      <c r="AQ26" s="39"/>
     </row>
     <row r="27" spans="1:43" ht="23.25" customHeight="1">
       <c r="A27" s="13"/>
@@ -2462,25 +2464,25 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="63">
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20">
         <f>Q25+Q26</f>
         <v>0</v>
       </c>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="36"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="64"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
@@ -2490,18 +2492,18 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="25" t="s">
+      <c r="AK27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="15">
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="38">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
+      <c r="AO27" s="39"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
     </row>
     <row r="28" spans="1:43" ht="24.75" customHeight="1">
       <c r="X28" s="2"/>
@@ -2608,29 +2610,151 @@
     <row r="47" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="X2:AH2"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="X25:AA27"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="Z11:AH11"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB6:AF7"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:I7"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="N20:P20"/>
     <mergeCell ref="C24:K24"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
@@ -2655,152 +2779,30 @@
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:I7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="Y6:AA7"/>
-    <mergeCell ref="AB6:AF7"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="Z11:AH11"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="X25:AA27"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AM24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTemplate/hoiku/納品書_保育園.xlsx
+++ b/ExcelTemplate/hoiku/納品書_保育園.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDE587-0183-47A6-AC47-D723D9C75E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEEBFB-CF6C-4D7F-A760-B1EAAF5493DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-16665" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="納品書" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>納品書</t>
     <phoneticPr fontId="2"/>
@@ -178,6 +177,10 @@
   </si>
   <si>
     <t>aaaaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録番号：T6-8103-9784-0117</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -498,6 +501,133 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -510,14 +640,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -526,152 +675,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,7 +987,7 @@
   <dimension ref="A1:AQ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AH2"/>
+      <selection activeCell="AK8" sqref="AK8:AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.875" defaultRowHeight="18.75"/>
@@ -1001,12 +1004,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1021,14 +1024,14 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="46" t="s">
+      <c r="AE1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
@@ -1038,58 +1041,58 @@
       <c r="AQ1" s="2"/>
     </row>
     <row r="2" spans="1:43" ht="24.75">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="58">
         <v>44560</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="X2" s="66" t="str">
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="X2" s="19" t="str">
         <f>A2</f>
         <v>aaaaa</v>
       </c>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="65">
+      <c r="AM2" s="34">
         <f>P2</f>
         <v>44560</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
     </row>
     <row r="3" spans="1:43" s="1" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="7"/>
@@ -1105,15 +1108,15 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
@@ -1130,29 +1133,29 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="42" t="s">
+      <c r="AK3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
     </row>
     <row r="4" spans="1:43" ht="28.5">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2" t="s">
         <v>7</v>
@@ -1168,26 +1171,26 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="N5" s="44" t="s">
+      <c r="N5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -1201,15 +1204,15 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="44" t="s">
+      <c r="AK5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
     </row>
     <row r="6" spans="1:43">
       <c r="B6" s="48" t="s">
@@ -1217,99 +1220,108 @@
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="50">
+      <c r="E6" s="59">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="11"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="48" t="s">
         <v>6</v>
       </c>
       <c r="Z6" s="48"/>
       <c r="AA6" s="48"/>
-      <c r="AB6" s="54">
+      <c r="AB6" s="50">
         <f>E6</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="44" t="s">
+      <c r="AK6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
     </row>
     <row r="7" spans="1:43">
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="49"/>
       <c r="Z7" s="49"/>
       <c r="AA7" s="49"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
       <c r="AG7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="44" t="s">
+      <c r="AK7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
     </row>
     <row r="8" spans="1:43">
+      <c r="N8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1323,1023 +1335,1025 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
+      <c r="AK8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
     </row>
     <row r="9" spans="1:43" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="30" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="30" t="s">
+      <c r="M9" s="43"/>
+      <c r="N9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="47" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="30" t="s">
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="30" t="s">
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="30" t="s">
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="47" t="s">
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="AO9" s="47"/>
-      <c r="AP9" s="47"/>
-      <c r="AQ9" s="47"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
     </row>
     <row r="10" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="38" t="str">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="23" t="str">
         <f>IF((L10*N10)=0,"",L10*N10)</f>
         <v/>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="41" t="str">
+      <c r="X10" s="36" t="str">
         <f>IF(A10=0,"",A10)</f>
         <v/>
       </c>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="22" t="str">
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="37" t="str">
         <f>IF(C10=0,"",C10)</f>
         <v/>
       </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="25" t="str">
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="14" t="str">
         <f>IF(L10=0,"",L10)</f>
         <v/>
       </c>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="35" t="str">
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="16" t="str">
         <f t="shared" ref="AK10:AK24" si="0">IF(N10=0,"",N10)</f>
         <v/>
       </c>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="38" t="str">
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="23" t="str">
         <f t="shared" ref="AN10:AN24" si="1">IF(Q10=0,"",Q10)</f>
         <v/>
       </c>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
     </row>
     <row r="11" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="38" t="str">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="23" t="str">
         <f t="shared" ref="Q11:Q24" si="2">IF((L11*N11)=0,"",L11*N11)</f>
         <v/>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="41" t="str">
+      <c r="X11" s="36" t="str">
         <f>IF(A11=0,"",A11)</f>
         <v/>
       </c>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="22" t="str">
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="37" t="str">
         <f t="shared" ref="Z11:Z24" si="3">IF(C11=0,"",C11)</f>
         <v/>
       </c>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="25" t="str">
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="14" t="str">
         <f t="shared" ref="AI11:AI24" si="4">IF(L11=0,"",L11)</f>
         <v/>
       </c>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="35" t="str">
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="38" t="str">
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
     </row>
     <row r="12" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="38" t="str">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="41" t="str">
+      <c r="X12" s="36" t="str">
         <f t="shared" ref="X12:X24" si="5">IF(A12=0,"",A12)</f>
         <v/>
       </c>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="22" t="str">
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="25" t="str">
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="35" t="str">
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="38" t="str">
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
     </row>
     <row r="13" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="38" t="str">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="41" t="str">
+      <c r="X13" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="22" t="str">
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="25" t="str">
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="35" t="str">
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="38" t="str">
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
     </row>
     <row r="14" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="38" t="str">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="41" t="str">
+      <c r="X14" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="22" t="str">
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="25" t="str">
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="35" t="str">
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="38" t="str">
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
     </row>
     <row r="15" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="38" t="str">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="41" t="str">
+      <c r="X15" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="22" t="str">
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="25" t="str">
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="35" t="str">
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="38" t="str">
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
     </row>
     <row r="16" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="38" t="str">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="41" t="str">
+      <c r="X16" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="22" t="str">
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="25" t="str">
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="35" t="str">
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="38" t="str">
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
     </row>
     <row r="17" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="38" t="str">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="41" t="str">
+      <c r="X17" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="22" t="str">
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="25" t="str">
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="35" t="str">
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="38" t="str">
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
     </row>
     <row r="18" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="38" t="str">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
-      <c r="X18" s="41" t="str">
+      <c r="X18" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="22" t="str">
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="25" t="str">
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="35" t="str">
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="38" t="str">
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
     </row>
     <row r="19" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="38" t="str">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-      <c r="X19" s="41" t="str">
+      <c r="X19" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="22" t="str">
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="25" t="str">
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="35" t="str">
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="38" t="str">
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
     </row>
     <row r="20" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="38" t="str">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="41" t="str">
+      <c r="X20" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="22" t="str">
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="25" t="str">
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="35" t="str">
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="38" t="str">
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
     </row>
     <row r="21" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="38" t="str">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="41" t="str">
+      <c r="X21" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="22" t="str">
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="25" t="str">
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="35" t="str">
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="38" t="str">
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
     </row>
     <row r="22" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="38" t="str">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="41" t="str">
+      <c r="X22" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="22" t="str">
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="25" t="str">
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="35" t="str">
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="38" t="str">
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
     </row>
     <row r="23" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="38" t="str">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="41" t="str">
+      <c r="X23" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="22" t="str">
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="25" t="str">
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="35" t="str">
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="37"/>
-      <c r="AN23" s="38" t="str">
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
     </row>
     <row r="24" spans="1:43" ht="23.25" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="38" t="str">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
-      <c r="X24" s="41" t="str">
+      <c r="X24" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="22" t="str">
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA24" s="23"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="25" t="str">
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="35" t="str">
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="37"/>
-      <c r="AN24" s="38" t="str">
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AO24" s="39"/>
-      <c r="AP24" s="39"/>
-      <c r="AQ24" s="39"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
     </row>
     <row r="25" spans="1:43" ht="23.25" customHeight="1">
       <c r="A25" s="13"/>
@@ -2354,27 +2368,27 @@
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20">
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="65">
         <f>SUM(Q10:T24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
-      <c r="X25" s="56" t="s">
+      <c r="X25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="27"/>
       <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
@@ -2384,18 +2398,18 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="17" t="s">
+      <c r="AK25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AL25" s="18"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="38">
+      <c r="AL25" s="21"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="23">
         <f>Q25</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="39"/>
-      <c r="AP25" s="39"/>
-      <c r="AQ25" s="39"/>
+      <c r="AO25" s="24"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="24"/>
     </row>
     <row r="26" spans="1:43" ht="23.25" customHeight="1">
       <c r="A26" s="13"/>
@@ -2410,25 +2424,25 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20">
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="65">
         <f>FLOOR(Q25*0.08,1)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="61"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="30"/>
       <c r="AB26" s="13"/>
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
@@ -2438,18 +2452,18 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="17" t="s">
+      <c r="AK26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="19"/>
-      <c r="AN26" s="38">
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="23">
         <f>Q26</f>
         <v>0</v>
       </c>
-      <c r="AO26" s="39"/>
-      <c r="AP26" s="39"/>
-      <c r="AQ26" s="39"/>
+      <c r="AO26" s="24"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="24"/>
     </row>
     <row r="27" spans="1:43" ht="23.25" customHeight="1">
       <c r="A27" s="13"/>
@@ -2464,25 +2478,25 @@
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20">
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="65">
         <f>Q25+Q26</f>
         <v>0</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="64"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
@@ -2492,18 +2506,18 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="17" t="s">
+      <c r="AK27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AL27" s="18"/>
-      <c r="AM27" s="19"/>
-      <c r="AN27" s="38">
+      <c r="AL27" s="21"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="23">
         <f>Q27</f>
         <v>0</v>
       </c>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
     </row>
     <row r="28" spans="1:43" ht="24.75" customHeight="1">
       <c r="X28" s="2"/>
@@ -2609,33 +2623,151 @@
     <row r="46" ht="16.5" customHeight="1"/>
     <row r="47" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="193">
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="X2:AH2"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="X25:AA27"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AE1:AJ1"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="Z24:AH24"/>
+  <mergeCells count="195">
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="Z13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="Z14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="Z15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="Z18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:I7"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="N8:T8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB6:AF7"/>
+    <mergeCell ref="AK6:AQ6"/>
+    <mergeCell ref="AK7:AQ7"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="Z12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="X23:Y23"/>
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="AN13:AQ13"/>
     <mergeCell ref="AN14:AQ14"/>
@@ -2660,149 +2792,33 @@
     <mergeCell ref="AK14:AM14"/>
     <mergeCell ref="AK15:AM15"/>
     <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="Y6:AA7"/>
-    <mergeCell ref="AB6:AF7"/>
-    <mergeCell ref="AK6:AQ6"/>
-    <mergeCell ref="AK7:AQ7"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="Z12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:I7"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="Z13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="Z14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="Z15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="Z17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="Z18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="AE1:AJ1"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="X2:AH2"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="X25:AA27"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="Z24:AH24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
